--- a/readme/parts list.xlsx
+++ b/readme/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\rotor\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C834501-FBAE-4949-B128-BA88B4118F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90F1325-950C-4FDA-84E6-480BC9D61367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="3165" windowWidth="29445" windowHeight="18300" xr2:uid="{8273045D-807B-4F42-8624-D6C9BA3AED05}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
   <si>
     <t>S1</t>
   </si>
@@ -244,18 +244,9 @@
     <t>https://smile.amazon.com/gp/product/B071ZFKJK7</t>
   </si>
   <si>
-    <t>Rpi</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>800x480</t>
   </si>
   <si>
@@ -410,13 +401,106 @@
   </si>
   <si>
     <t>https://smile.amazon.com/gp/product/B07TY211KG</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>IC7</t>
+  </si>
+  <si>
+    <t>LM7815</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>Breadboards</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B07PCJP9DY</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B077BR9KT2</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B07L22J7F9</t>
+  </si>
+  <si>
+    <t>T-Cobler</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B00OG4X0DK</t>
+  </si>
+  <si>
+    <t>IC8</t>
+  </si>
+  <si>
+    <t>24v ac relay</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B00PZXGHZY</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B07C2J32RV</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B08FMKXN3D</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>HDMI Male to Male 180 Degree</t>
+  </si>
+  <si>
+    <t>RPi-1</t>
+  </si>
+  <si>
+    <t>RPi-2</t>
+  </si>
+  <si>
+    <t>RPi-3</t>
+  </si>
+  <si>
+    <t>RPi-4</t>
+  </si>
+  <si>
+    <t>HDMI Male to Female 90 degree</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B071L7N7LH</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Micro-HDMI Male to HDMI Female</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Comes with Rpi-1 above (B07TVVJZQT)</t>
+  </si>
+  <si>
+    <t>Alternate adapters</t>
+  </si>
+  <si>
+    <t>Micro-HDMI Male to HDMI Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +539,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -483,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -498,6 +597,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -813,10 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6500901D-52BC-4025-B716-5B50CF623594}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1511,7 @@
         <v>20.99</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:E50" si="1">+C28*D28</f>
+        <f t="shared" ref="E28:E59" si="1">+C28*D28</f>
         <v>20.99</v>
       </c>
       <c r="F28" s="2">
@@ -1421,10 +1523,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1433,490 +1535,755 @@
         <v>6</v>
       </c>
       <c r="E29" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F29" s="2">
         <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="5"/>
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <f>+F30/50</f>
+        <v>0.13</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>66.989999999999995</v>
+        <f>+F31/50</f>
+        <v>0.27</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>66.989999999999995</v>
+        <v>0.27</v>
       </c>
       <c r="F31" s="2">
-        <f>+D31</f>
-        <v>66.989999999999995</v>
+        <v>13.5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>6.19</v>
+        <v>12.29</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
+        <v>12.29</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12.29</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>66.989999999999995</v>
+      </c>
+      <c r="F34" s="2">
+        <f>+D34</f>
+        <v>66.989999999999995</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
         <v>6.19</v>
       </c>
-      <c r="F32" s="2">
-        <f>+D32</f>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
         <v>6.19</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="F35" s="2">
+        <f>+D35</f>
+        <v>6.19</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
         <v>40.99</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>40.99</v>
       </c>
-      <c r="F33" s="2">
-        <f>+D33</f>
+      <c r="F36" s="2">
+        <f>+D36</f>
         <v>40.99</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="G36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E37" s="2">
+        <f>+C37*D37</f>
+        <v>10.7</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <f>+F35/5</f>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <f>+F39/5</f>
         <v>2.77</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" ref="E35:E41" si="2">+C35*D35</f>
+      <c r="E39" s="2">
+        <f t="shared" ref="E39:E46" si="2">+C39*D39</f>
         <v>2.77</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F39" s="2">
         <v>13.85</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>9</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E40" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F40" s="2">
         <v>9</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="G40" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D37" s="2">
-        <f>+F37/5</f>
+      <c r="D41" s="2">
+        <f>+F41/5</f>
         <v>2.4</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E41" s="2">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F41" s="2">
         <v>12</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="G41" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <f>+F38/5</f>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <f>+F42/5</f>
         <v>2.8</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E42" s="2">
         <f t="shared" si="2"/>
         <v>2.8</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F42" s="2">
         <v>14</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <f>+F43/25</f>
+        <v>1.08</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="2"/>
+        <v>4.32</v>
+      </c>
+      <c r="F43" s="2">
+        <v>27</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <f>+F44/25</f>
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0207999999999999</v>
+      </c>
+      <c r="F44" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
-        <f>+F39/25</f>
-        <v>1.08</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>3.24</v>
-      </c>
-      <c r="F39" s="2">
-        <v>27</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2">
-        <f>+F40/25</f>
-        <v>0.25519999999999998</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="2"/>
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="F40" s="2">
-        <v>6.38</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
         <v>2.98</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E45" s="2">
         <f t="shared" si="2"/>
         <v>2.98</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F45" s="2">
         <v>2.98</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="G45" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <f>+F46/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>5.25</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="2">
-        <f>+F43/18</f>
+      <c r="D48" s="2">
+        <f>+F48/18</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F48" s="2">
         <v>7</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="G48" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1">
         <v>20</v>
       </c>
-      <c r="D44" s="2">
-        <f>+F44/72</f>
+      <c r="D49" s="2">
+        <f>+F49/72</f>
         <v>0.21527777777777779</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>4.3055555555555554</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F49" s="2">
         <v>15.5</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="G49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <f>+F45/200</f>
+      <c r="D50" s="2">
+        <f>+F50/200</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F50" s="2">
         <v>6.6</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="G50" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1">
         <v>34</v>
       </c>
-      <c r="D46" s="2">
-        <f>+F46/100</f>
+      <c r="D51" s="2">
+        <f>+F51/100</f>
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>2.1284000000000001</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F51" s="2">
         <v>6.26</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G51" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="C52" s="1">
         <v>16</v>
       </c>
-      <c r="D47" s="2">
-        <f>+F47/100</f>
+      <c r="D52" s="2">
+        <f>+F52/100</f>
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>1.2336</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F52" s="2">
         <v>7.71</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G52" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
-        <f>+F48/200</f>
+      <c r="D53" s="2">
+        <f>+F53/200</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F53" s="2">
         <v>9</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="G53" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1">
         <v>14</v>
       </c>
-      <c r="D49" s="2">
-        <f>+F49/810</f>
+      <c r="D54" s="2">
+        <f>+F54/810</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E54" s="2">
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F54" s="2">
         <v>18</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <f>+F50/15</f>
+      <c r="G54" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <f>+F55/15</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E55" s="2">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F55" s="2">
         <v>33</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7">
-        <f>SUM(E2:E51)</f>
-        <v>225.65313444444445</v>
-      </c>
-      <c r="F52" s="7">
-        <f>SUM(F2:F51)</f>
-        <v>646.34000000000015</v>
-      </c>
-      <c r="G52" s="6"/>
+      <c r="G55" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F58" s="2">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F59" s="2">
+        <v>10</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
+        <f>SUM(E2:E60)</f>
+        <v>272.88353444444442</v>
+      </c>
+      <c r="F61" s="7">
+        <f>SUM(F2:F60)</f>
+        <v>713.33000000000015</v>
+      </c>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <f>+F65</f>
+        <v>11.3</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ref="E65" si="3">+C65*D65</f>
+        <v>11.3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="4">+C66*D66</f>
+        <v>7</v>
+      </c>
+      <c r="F66" s="2">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{173B1E64-7A32-4B1B-A443-AA33897ABF2C}"/>
     <hyperlink ref="G22" r:id="rId2" xr:uid="{87B55EBD-D01D-40B3-B369-D38A9D30C5A9}"/>
@@ -1925,13 +2292,21 @@
     <hyperlink ref="G19" r:id="rId5" xr:uid="{318C26A0-1E54-4B9F-A276-DD39CE122A03}"/>
     <hyperlink ref="G29" r:id="rId6" xr:uid="{4F7C40AD-DF3C-4B6D-8A4A-46FD113CEDC0}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{AA0AF748-0B4F-4116-91F1-025DF82FA19A}"/>
-    <hyperlink ref="G40" r:id="rId8" xr:uid="{EFAF5C2F-927C-4864-8B1B-B857BC9A9A80}"/>
-    <hyperlink ref="G36" r:id="rId9" xr:uid="{2181B14A-D3A8-4BD5-A74D-9FC7DB972CDB}"/>
-    <hyperlink ref="G44" r:id="rId10" xr:uid="{CD00A749-B5F8-4A27-9ECA-DBABAFE80503}"/>
-    <hyperlink ref="G41" r:id="rId11" xr:uid="{DD3073EB-E1C9-4C4E-A669-2F3F515D08A8}"/>
-    <hyperlink ref="G50" r:id="rId12" xr:uid="{F88F8479-4F95-4980-A46C-AD8B21E2395C}"/>
+    <hyperlink ref="G44" r:id="rId8" xr:uid="{EFAF5C2F-927C-4864-8B1B-B857BC9A9A80}"/>
+    <hyperlink ref="G40" r:id="rId9" xr:uid="{2181B14A-D3A8-4BD5-A74D-9FC7DB972CDB}"/>
+    <hyperlink ref="G49" r:id="rId10" xr:uid="{CD00A749-B5F8-4A27-9ECA-DBABAFE80503}"/>
+    <hyperlink ref="G45" r:id="rId11" xr:uid="{DD3073EB-E1C9-4C4E-A669-2F3F515D08A8}"/>
+    <hyperlink ref="G55" r:id="rId12" xr:uid="{F88F8479-4F95-4980-A46C-AD8B21E2395C}"/>
+    <hyperlink ref="G46" r:id="rId13" xr:uid="{221854A2-0A1D-4F8C-B3D1-0B0F50ADCB32}"/>
+    <hyperlink ref="G31" r:id="rId14" xr:uid="{4D24C679-F23D-45F5-A21E-18AE4A759708}"/>
+    <hyperlink ref="G30" r:id="rId15" xr:uid="{D7083309-3AE3-4BFA-BB24-676881A173E4}"/>
+    <hyperlink ref="G37" r:id="rId16" xr:uid="{DBBE2DE9-C6BA-4ECE-B85F-EE0CEC7462F6}"/>
+    <hyperlink ref="G34" r:id="rId17" xr:uid="{F8194796-80B6-4AB8-928E-9DDC2F23FC29}"/>
+    <hyperlink ref="G59" r:id="rId18" xr:uid="{5D986D88-7B4F-4794-9086-96872B869B77}"/>
+    <hyperlink ref="G65" r:id="rId19" xr:uid="{8C7354EF-1573-43D4-A5AF-248C05FA5D41}"/>
+    <hyperlink ref="G58" r:id="rId20" xr:uid="{FB4BE42F-2053-4DB4-9A4C-5FD15A44BEF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/readme/parts list.xlsx
+++ b/readme/parts list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\rotor\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90F1325-950C-4FDA-84E6-480BC9D61367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F266DC-FCFF-43C6-AB34-4AD10B24A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="3165" windowWidth="29445" windowHeight="18300" xr2:uid="{8273045D-807B-4F42-8624-D6C9BA3AED05}"/>
   </bookViews>
@@ -582,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -597,7 +597,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -917,8 +916,8 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1643,7 +1642,7 @@
         <f>+D34</f>
         <v>66.989999999999995</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2226,7 +2225,7 @@
       <c r="G62" s="6"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>154</v>
       </c>
     </row>

--- a/readme/parts list.xlsx
+++ b/readme/parts list.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\pi\src\rotor\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F266DC-FCFF-43C6-AB34-4AD10B24A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125FE26-9728-4FD7-9C06-E54942316062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="3165" windowWidth="29445" windowHeight="18300" xr2:uid="{8273045D-807B-4F42-8624-D6C9BA3AED05}"/>
+    <workbookView xWindow="-27000" yWindow="1380" windowWidth="26220" windowHeight="18765" xr2:uid="{8273045D-807B-4F42-8624-D6C9BA3AED05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="159">
   <si>
     <t>S1</t>
   </si>
@@ -247,9 +246,6 @@
     <t>Raspberry Pi</t>
   </si>
   <si>
-    <t>800x480</t>
-  </si>
-  <si>
     <t>https://smile.amazon.com/gp/product/B07XBVF1C9</t>
   </si>
   <si>
@@ -494,6 +490,18 @@
   </si>
   <si>
     <t>Micro-HDMI Male to HDMI Male</t>
+  </si>
+  <si>
+    <t>Power Socket</t>
+  </si>
+  <si>
+    <t>800x480 Display</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B07DCXKNXQ</t>
+  </si>
+  <si>
+    <t>M9</t>
   </si>
 </sst>
 </file>
@@ -913,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6500901D-52BC-4025-B716-5B50CF623594}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1510,7 +1518,7 @@
         <v>20.99</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:E59" si="1">+C28*D28</f>
+        <f t="shared" ref="E28:E60" si="1">+C28*D28</f>
         <v>20.99</v>
       </c>
       <c r="F28" s="2">
@@ -1522,10 +1530,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1541,15 +1549,15 @@
         <v>6</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1566,15 +1574,15 @@
         <v>6.5</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1591,15 +1599,15 @@
         <v>13.5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1615,7 +1623,7 @@
         <v>12.29</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1623,7 +1631,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>72</v>
@@ -1643,15 +1651,15 @@
         <v>66.989999999999995</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1668,15 +1676,15 @@
         <v>6.19</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1693,15 +1701,15 @@
         <v>40.99</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1717,7 +1725,7 @@
         <v>10.7</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1725,7 +1733,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>52</v>
@@ -1738,7 +1746,7 @@
         <v>2.77</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ref="E39:E46" si="2">+C39*D39</f>
+        <f t="shared" ref="E39:E47" si="2">+C39*D39</f>
         <v>2.77</v>
       </c>
       <c r="F39" s="2">
@@ -1750,536 +1758,561 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>9</v>
+        <f>+F40/10</f>
+        <v>0.7</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0.7</v>
       </c>
       <c r="F40" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
-        <f>+F41/5</f>
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="2"/>
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2">
         <f>+F42/5</f>
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="2"/>
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="F42" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2">
-        <f>+F43/25</f>
-        <v>1.08</v>
+        <f>+F43/5</f>
+        <v>2.8</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="2"/>
-        <v>4.32</v>
+        <v>2.8</v>
       </c>
       <c r="F43" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1">
         <v>4</v>
       </c>
       <c r="D44" s="2">
         <f>+F44/25</f>
-        <v>0.25519999999999998</v>
+        <v>1.08</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="2"/>
-        <v>1.0207999999999999</v>
+        <v>4.32</v>
       </c>
       <c r="F44" s="2">
-        <v>6.38</v>
+        <v>27</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="2">
-        <v>2.98</v>
+        <f>+F45/25</f>
+        <v>0.25519999999999998</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="2"/>
-        <v>2.98</v>
+        <v>1.0207999999999999</v>
       </c>
       <c r="F45" s="2">
-        <v>2.98</v>
+        <v>6.38</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
-        <f>+F46/4</f>
-        <v>1.75</v>
+        <v>2.98</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="2"/>
+        <v>2.98</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <f>+F47/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
         <v>5.25</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F47" s="2">
         <v>7</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="2">
-        <f>+F48/18</f>
+      <c r="D49" s="2">
+        <f>+F49/18</f>
         <v>0.3888888888888889</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="2">
         <v>7</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G49" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>20</v>
       </c>
-      <c r="D49" s="2">
-        <f>+F49/72</f>
+      <c r="D50" s="2">
+        <f>+F50/72</f>
         <v>0.21527777777777779</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>4.3055555555555554</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="2">
         <v>15.5</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="G50" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="1">
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
-        <f>+F50/200</f>
+      <c r="D51" s="2">
+        <f>+F51/200</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F51" s="2">
         <v>6.6</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="G51" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1">
         <v>34</v>
       </c>
-      <c r="D51" s="2">
-        <f>+F51/100</f>
+      <c r="D52" s="2">
+        <f>+F52/100</f>
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>2.1284000000000001</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F52" s="2">
         <v>6.26</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="G52" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="1">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1">
         <v>16</v>
       </c>
-      <c r="D52" s="2">
-        <f>+F52/100</f>
+      <c r="D53" s="2">
+        <f>+F53/100</f>
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>1.2336</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F53" s="2">
         <v>7.71</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="G53" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="D53" s="2">
-        <f>+F53/200</f>
+      <c r="D54" s="2">
+        <f>+F54/200</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="2">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="2">
         <v>9</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G54" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <v>14</v>
       </c>
-      <c r="D54" s="2">
-        <f>+F54/810</f>
+      <c r="D55" s="2">
+        <f>+F55/810</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E55" s="2">
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F55" s="2">
         <v>18</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="G55" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <f>+F55/15</f>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <f>+F56/15</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E56" s="2">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F56" s="2">
         <v>33</v>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
         <v>7</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E59" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F59" s="2">
         <v>7</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
+      <c r="G59" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
         <v>10</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E60" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F60" s="2">
         <v>10</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7">
-        <f>SUM(E2:E60)</f>
-        <v>272.88353444444442</v>
-      </c>
-      <c r="F61" s="7">
-        <f>SUM(F2:F60)</f>
-        <v>713.33000000000015</v>
-      </c>
-      <c r="G61" s="6"/>
+      <c r="G60" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="E62" s="7">
+        <f>SUM(E2:E61)</f>
+        <v>273.58353444444441</v>
+      </c>
+      <c r="F62" s="7">
+        <f>SUM(F2:F61)</f>
+        <v>720.33000000000015</v>
+      </c>
       <c r="G62" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
-        <v>154</v>
-      </c>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <f>+F65</f>
-        <v>11.3</v>
-      </c>
-      <c r="E65" s="2">
-        <f t="shared" ref="E65" si="3">+C65*D65</f>
-        <v>11.3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>149</v>
+      <c r="B65" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <f>+F66</f>
+        <v>11.3</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ref="E66" si="3">+C66*D66</f>
+        <v>11.3</v>
+      </c>
+      <c r="F66" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
         <v>7</v>
       </c>
-      <c r="E66" s="2">
-        <f t="shared" ref="E66" si="4">+C66*D66</f>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67" si="4">+C67*D67</f>
         <v>7</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
         <v>7</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2291,19 +2324,19 @@
     <hyperlink ref="G19" r:id="rId5" xr:uid="{318C26A0-1E54-4B9F-A276-DD39CE122A03}"/>
     <hyperlink ref="G29" r:id="rId6" xr:uid="{4F7C40AD-DF3C-4B6D-8A4A-46FD113CEDC0}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{AA0AF748-0B4F-4116-91F1-025DF82FA19A}"/>
-    <hyperlink ref="G44" r:id="rId8" xr:uid="{EFAF5C2F-927C-4864-8B1B-B857BC9A9A80}"/>
-    <hyperlink ref="G40" r:id="rId9" xr:uid="{2181B14A-D3A8-4BD5-A74D-9FC7DB972CDB}"/>
-    <hyperlink ref="G49" r:id="rId10" xr:uid="{CD00A749-B5F8-4A27-9ECA-DBABAFE80503}"/>
-    <hyperlink ref="G45" r:id="rId11" xr:uid="{DD3073EB-E1C9-4C4E-A669-2F3F515D08A8}"/>
-    <hyperlink ref="G55" r:id="rId12" xr:uid="{F88F8479-4F95-4980-A46C-AD8B21E2395C}"/>
-    <hyperlink ref="G46" r:id="rId13" xr:uid="{221854A2-0A1D-4F8C-B3D1-0B0F50ADCB32}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{EFAF5C2F-927C-4864-8B1B-B857BC9A9A80}"/>
+    <hyperlink ref="G41" r:id="rId9" xr:uid="{2181B14A-D3A8-4BD5-A74D-9FC7DB972CDB}"/>
+    <hyperlink ref="G50" r:id="rId10" xr:uid="{CD00A749-B5F8-4A27-9ECA-DBABAFE80503}"/>
+    <hyperlink ref="G46" r:id="rId11" xr:uid="{DD3073EB-E1C9-4C4E-A669-2F3F515D08A8}"/>
+    <hyperlink ref="G56" r:id="rId12" xr:uid="{F88F8479-4F95-4980-A46C-AD8B21E2395C}"/>
+    <hyperlink ref="G47" r:id="rId13" xr:uid="{221854A2-0A1D-4F8C-B3D1-0B0F50ADCB32}"/>
     <hyperlink ref="G31" r:id="rId14" xr:uid="{4D24C679-F23D-45F5-A21E-18AE4A759708}"/>
     <hyperlink ref="G30" r:id="rId15" xr:uid="{D7083309-3AE3-4BFA-BB24-676881A173E4}"/>
     <hyperlink ref="G37" r:id="rId16" xr:uid="{DBBE2DE9-C6BA-4ECE-B85F-EE0CEC7462F6}"/>
     <hyperlink ref="G34" r:id="rId17" xr:uid="{F8194796-80B6-4AB8-928E-9DDC2F23FC29}"/>
-    <hyperlink ref="G59" r:id="rId18" xr:uid="{5D986D88-7B4F-4794-9086-96872B869B77}"/>
-    <hyperlink ref="G65" r:id="rId19" xr:uid="{8C7354EF-1573-43D4-A5AF-248C05FA5D41}"/>
-    <hyperlink ref="G58" r:id="rId20" xr:uid="{FB4BE42F-2053-4DB4-9A4C-5FD15A44BEF1}"/>
+    <hyperlink ref="G60" r:id="rId18" xr:uid="{5D986D88-7B4F-4794-9086-96872B869B77}"/>
+    <hyperlink ref="G66" r:id="rId19" xr:uid="{8C7354EF-1573-43D4-A5AF-248C05FA5D41}"/>
+    <hyperlink ref="G59" r:id="rId20" xr:uid="{FB4BE42F-2053-4DB4-9A4C-5FD15A44BEF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
